--- a/template.xlsx
+++ b/template.xlsx
@@ -4,9 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Main" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Portfolio" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Orders" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Helpers" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="MarketData" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Portfolio" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Orders" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Helpers" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="IS_UPDATED">Main!$A$3</definedName>
@@ -15,13 +16,13 @@
     <definedName name="operationState">Helpers!$G$2:$G$5</definedName>
     <definedName name="direction">Helpers!$E$2:$E$4</definedName>
     <definedName name="instrumentKind">Helpers!$A$2:$A$10</definedName>
+    <definedName name="CurrencyIsoCode">Helpers!$J$2:$J$11</definedName>
     <definedName name="IS_SANDBOX">Main!$C$3</definedName>
-    <definedName name="CurrencyIsoCode">Helpers!$J$2:$J$11</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_9A701F59_F856_4C27_BF5F_FC0C352319C1_.wvu.FilterData">Orders!$A$8:$J$17</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_77633900_8268_4D1D_8E31_61A1EFE339F6_.wvu.FilterData">Orders!$A$8:$J$17</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9A701F59-F856-4C27-BF5F-FC0C352319C1}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{77633900-8268-4D1D-8E31-61A1EFE339F6}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Settings</t>
   </si>
@@ -108,6 +109,21 @@
     <t>TI_GetSandboxAccounts()</t>
   </si>
   <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BBG00QXGFHS6</t>
+  </si>
+  <si>
+    <t>TI_GetAllCandles(A3;"CANDLE_INTERVAL_2_HOUR";"15.09.2022";"15.09.2023")</t>
+  </si>
+  <si>
+    <t>MarkedData</t>
+  </si>
+  <si>
     <t>Account</t>
   </si>
   <si>
@@ -124,9 +140,6 @@
   </si>
   <si>
     <t>TI_GetPortfolio(A3;B3;IS_SANDBOX)</t>
-  </si>
-  <si>
-    <t>Template</t>
   </si>
   <si>
     <t>InstrumentName</t>
@@ -319,6 +332,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
+    <font>
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -328,11 +346,6 @@
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="&quot;Google Sans Mono&quot;"/>
     </font>
     <font>
       <b/>
@@ -515,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -564,34 +577,37 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -621,7 +637,7 @@
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
@@ -649,6 +665,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -15283,13 +15303,267 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3">
+      <formula1>Main!$I$3:$I997</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23"/>
@@ -15318,11 +15592,11 @@
       <c r="Z1" s="23"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>12</v>
+      <c r="A2" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -15350,9 +15624,9 @@
       <c r="Z2" s="23"/>
     </row>
     <row r="3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -15408,8 +15682,8 @@
       <c r="Z4" s="23"/>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="s">
-        <v>15</v>
+      <c r="A5" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -15438,8 +15712,8 @@
       <c r="Z5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
-        <v>16</v>
+      <c r="A6" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -15468,15 +15742,15 @@
       <c r="Z6" s="23"/>
     </row>
     <row r="7">
-      <c r="A7" s="30"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="31"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="25"/>
@@ -15496,12 +15770,12 @@
       <c r="Z7" s="23"/>
     </row>
     <row r="8">
-      <c r="A8" s="30"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="31"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="31"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -15524,15 +15798,15 @@
       <c r="Z8" s="23"/>
     </row>
     <row r="9">
-      <c r="A9" s="30"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="31"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="25"/>
@@ -15552,15 +15826,15 @@
       <c r="Z9" s="23"/>
     </row>
     <row r="10">
-      <c r="A10" s="30"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="31"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="25"/>
@@ -15580,15 +15854,15 @@
       <c r="Z10" s="23"/>
     </row>
     <row r="11">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="25"/>
@@ -15608,7 +15882,7 @@
       <c r="Z11" s="23"/>
     </row>
     <row r="12">
-      <c r="A12" s="30"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -15636,7 +15910,7 @@
       <c r="Z12" s="23"/>
     </row>
     <row r="13">
-      <c r="A13" s="30"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -15664,7 +15938,7 @@
       <c r="Z13" s="23"/>
     </row>
     <row r="14">
-      <c r="A14" s="30"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -15692,7 +15966,7 @@
       <c r="Z14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -15720,7 +15994,7 @@
       <c r="Z15" s="23"/>
     </row>
     <row r="16">
-      <c r="A16" s="30"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -15748,7 +16022,7 @@
       <c r="Z16" s="23"/>
     </row>
     <row r="17">
-      <c r="A17" s="30"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -15776,7 +16050,7 @@
       <c r="Z17" s="23"/>
     </row>
     <row r="18">
-      <c r="A18" s="30"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -15804,7 +16078,7 @@
       <c r="Z18" s="23"/>
     </row>
     <row r="19">
-      <c r="A19" s="30"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -15832,7 +16106,7 @@
       <c r="Z19" s="23"/>
     </row>
     <row r="20">
-      <c r="A20" s="30"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -15860,7 +16134,7 @@
       <c r="Z20" s="23"/>
     </row>
     <row r="21">
-      <c r="A21" s="30"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -15888,7 +16162,7 @@
       <c r="Z21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -15916,7 +16190,7 @@
       <c r="Z22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="30"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -15944,7 +16218,7 @@
       <c r="Z23" s="23"/>
     </row>
     <row r="24">
-      <c r="A24" s="30"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -15972,7 +16246,7 @@
       <c r="Z24" s="23"/>
     </row>
     <row r="25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -16000,7 +16274,7 @@
       <c r="Z25" s="23"/>
     </row>
     <row r="26">
-      <c r="A26" s="30"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -16028,7 +16302,7 @@
       <c r="Z26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="30"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -16056,7 +16330,7 @@
       <c r="Z27" s="23"/>
     </row>
     <row r="28">
-      <c r="A28" s="30"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -16084,7 +16358,7 @@
       <c r="Z28" s="23"/>
     </row>
     <row r="29">
-      <c r="A29" s="30"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -16112,7 +16386,7 @@
       <c r="Z29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="30"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -16140,7 +16414,7 @@
       <c r="Z30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="30"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -16168,7 +16442,7 @@
       <c r="Z31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="30"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -16196,7 +16470,7 @@
       <c r="Z32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="33"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -43313,7 +43587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -43338,62 +43612,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="41"/>
+      <c r="D3" s="39"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" ht="18.0" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="40"/>
-      <c r="D3" s="38"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4">
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>24</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="10"/>
       <c r="K6" s="10"/>
@@ -43407,53 +43681,53 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="9" ht="18.0" customHeight="1">
+      <c r="A9" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="G10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9A701F59-F856-4C27-BF5F-FC0C352319C1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{77633900-8268-4D1D-8E31-61A1EFE339F6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$8:$J$17"/>
     </customSheetView>
   </customSheetViews>
@@ -43476,7 +43750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -43487,167 +43761,167 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="C2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="E2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="G2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="I2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="J2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="49" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="C3" s="39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="E3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="G3" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="I3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="J3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="49" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="C4" s="39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="G4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="I4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="J4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="49" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="G5" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="I5" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="38" t="s">
+      <c r="J5" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="49" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="s">
+      <c r="I6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="J6" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="49" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="38" t="s">
+      <c r="I7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="J7" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="I8" s="50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
+      <c r="J8" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="49" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="I9" s="50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="I11" s="49" t="s">
+      <c r="J9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="49" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="39" t="s">
         <v>68</v>
       </c>
+      <c r="I10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="I11" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
